--- a/tests/data/ci_v2_data_group.xlsx
+++ b/tests/data/ci_v2_data_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3185B31-DBC2-754C-82DD-B7067CBB06FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF2DE3-0A1B-2C4A-9737-FB4CE2783844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18680" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -378,8 +378,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,288 +750,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <v>36000000</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="6">
         <v>43617</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="6">
         <v>43617</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="1">
+      <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="1">
+      <c r="S3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4" s="6">
         <v>42522</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="1">
+      <c r="R4" s="1">
         <v>2</v>
       </c>
-      <c r="U4" s="1">
+      <c r="S4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7">
+      <c r="D5" s="7">
         <v>1000000</v>
       </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5" s="6">
         <v>43617</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="1">
+      <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="U5" s="1">
+      <c r="S5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="6">
         <v>43617</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="1">
+      <c r="R6" s="1">
         <v>4</v>
       </c>
-      <c r="U6" s="1">
+      <c r="S6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="11">
         <v>72000000</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="E11" s="10" t="s">
@@ -1057,7 +1054,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>1.2500000000000001E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1096,8 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15"/>
       <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
@@ -1107,6 +1105,10 @@
         <f>1/(1000*1000*1000)</f>
         <v>1.0000000000000001E-9</v>
       </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
@@ -1128,6 +1130,7 @@
     </row>
     <row r="18" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
+      <c r="C18"/>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1136,11 +1139,11 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F18" s="1">
-        <f>C10*F5*F12</f>
+        <f>C10*D5*F12</f>
         <v>1.25E-3</v>
       </c>
       <c r="G18" s="1">
-        <f>E18*F6/1000</f>
+        <f>E18*D6/1000</f>
         <v>1.0000000000000001E-7</v>
       </c>
       <c r="I18" s="11">
@@ -1150,6 +1153,7 @@
     </row>
     <row r="19" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
+      <c r="C19"/>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1158,11 +1162,11 @@
         <v>1.1111111111111112E-4</v>
       </c>
       <c r="F19" s="1">
-        <f>C14*F5*F12</f>
+        <f>C14*D5*F12</f>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G19" s="1">
-        <f>E19*F6/1000</f>
+        <f>E19*D6/1000</f>
         <v>5.5555555555555561E-8</v>
       </c>
       <c r="I19" s="11">
@@ -1172,6 +1176,7 @@
     </row>
     <row r="20" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
+      <c r="C20"/>
       <c r="E20" s="18"/>
       <c r="I20" s="11"/>
     </row>
@@ -1179,6 +1184,7 @@
       <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="C21"/>
       <c r="E21" s="18" t="s">
         <v>47</v>
       </c>
@@ -1192,11 +1198,12 @@
     </row>
     <row r="22" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
+      <c r="C22"/>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="18">
-        <f>F18*F4*F13*F14</f>
+        <f>F18*D4*F13*F14</f>
         <v>2.4999999999999999E-8</v>
       </c>
       <c r="F22" s="1">
@@ -1204,7 +1211,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G22" s="1">
-        <f>E22*F6/F14*F15</f>
+        <f>E22*D6/F14*F15</f>
         <v>1.2500000000000002E-11</v>
       </c>
       <c r="I22" s="11">
@@ -1214,11 +1221,12 @@
     </row>
     <row r="23" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
+      <c r="C23"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="18">
-        <f>F19*F4*F13*F14</f>
+        <f>F19*D4*F13*F14</f>
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="F23" s="1">
@@ -1226,7 +1234,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G23" s="1">
-        <f>E23*F6/F14*F15</f>
+        <f>E23*D6/F14*F15</f>
         <v>6.250000000000001E-12</v>
       </c>
       <c r="I23" s="11">
@@ -1236,6 +1244,7 @@
     </row>
     <row r="24" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
+      <c r="C24"/>
       <c r="E24" s="18"/>
       <c r="I24" s="15"/>
     </row>
@@ -1243,6 +1252,7 @@
       <c r="B25" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="C25"/>
       <c r="E25" s="18" t="s">
         <v>47</v>
       </c>
@@ -1253,15 +1263,16 @@
     </row>
     <row r="26" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
+      <c r="C26"/>
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="18">
-        <f>F22*F4*F14*F13</f>
+        <f>F22*D4*F14*F13</f>
         <v>2.4999999999999999E-8</v>
       </c>
       <c r="G26" s="1">
-        <f>E26*F6/F14*F15</f>
+        <f>E26*D6/F14*F15</f>
         <v>1.2500000000000002E-11</v>
       </c>
       <c r="I26" s="11">
@@ -1276,12 +1287,12 @@
         <v>41</v>
       </c>
       <c r="E27" s="19">
-        <f>F23*F4*F14*F13</f>
+        <f>F23*D4*F14*F13</f>
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
-        <f>E27*F6/F14*F15</f>
+        <f>E27*D6/F14*F15</f>
         <v>6.250000000000001E-12</v>
       </c>
       <c r="H27" s="16"/>

--- a/tests/data/ci_v2_data_group.xlsx
+++ b/tests/data/ci_v2_data_group.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -529,11 +529,11 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26"/>
@@ -1086,10 +1086,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
@@ -1118,10 +1118,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
@@ -1150,10 +1150,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F6 A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -1230,11 +1230,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F6 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
